--- a/python/Statistics/Results/RST_classification_ERA_2.5_1979-2016.xlsx
+++ b/python/Statistics/Results/RST_classification_ERA_2.5_1979-2016.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hatzv\Documents\Geography\RSTs\python\Statistics\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14246" uniqueCount="16">
   <si>
     <t>No RST</t>
   </si>
@@ -28,30 +32,80 @@
   <si>
     <t>West</t>
   </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,17 +113,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -357,20 +441,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B2:AM367"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AM367"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="4">
+        <v>1979</v>
+      </c>
+      <c r="C1" s="4">
+        <v>1980</v>
+      </c>
+      <c r="D1" s="4">
+        <v>1981</v>
+      </c>
+      <c r="E1" s="4">
+        <v>1982</v>
+      </c>
+      <c r="F1" s="4">
+        <v>1983</v>
+      </c>
+      <c r="G1" s="4">
+        <v>1984</v>
+      </c>
+      <c r="H1" s="4">
+        <v>1985</v>
+      </c>
+      <c r="I1" s="4">
+        <v>1986</v>
+      </c>
+      <c r="J1" s="4">
+        <v>1987</v>
+      </c>
+      <c r="K1" s="4">
+        <v>1988</v>
+      </c>
+      <c r="L1" s="4">
+        <v>1989</v>
+      </c>
+      <c r="M1" s="4">
+        <v>1990</v>
+      </c>
+      <c r="N1" s="4">
+        <v>1991</v>
+      </c>
+      <c r="O1" s="4">
+        <v>1992</v>
+      </c>
+      <c r="P1" s="4">
+        <v>1993</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>1994</v>
+      </c>
+      <c r="R1" s="4">
+        <v>1995</v>
+      </c>
+      <c r="S1" s="4">
+        <v>1996</v>
+      </c>
+      <c r="T1" s="4">
+        <v>1997</v>
+      </c>
+      <c r="U1" s="4">
+        <v>1998</v>
+      </c>
+      <c r="V1" s="4">
+        <v>1999</v>
+      </c>
+      <c r="W1" s="4">
+        <v>2000</v>
+      </c>
+      <c r="X1" s="4">
+        <v>2001</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>2002</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>2003</v>
+      </c>
+      <c r="AA1" s="4">
+        <v>2004</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>2005</v>
+      </c>
+      <c r="AC1" s="4">
+        <v>2006</v>
+      </c>
+      <c r="AD1" s="4">
+        <v>2007</v>
+      </c>
+      <c r="AE1" s="4">
+        <v>2008</v>
+      </c>
+      <c r="AF1" s="4">
+        <v>2009</v>
+      </c>
+      <c r="AG1" s="4">
+        <v>2010</v>
+      </c>
+      <c r="AH1" s="4">
+        <v>2011</v>
+      </c>
+      <c r="AI1" s="4">
+        <v>2012</v>
+      </c>
+      <c r="AJ1" s="4">
+        <v>2013</v>
+      </c>
+      <c r="AK1" s="4">
+        <v>2014</v>
+      </c>
+      <c r="AL1" s="4">
+        <v>2015</v>
+      </c>
+      <c r="AM1" s="3">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -486,7 +684,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -602,7 +803,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -718,7 +922,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -834,7 +1041,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -950,7 +1160,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1279,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1398,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -1298,7 +1517,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -1414,7 +1636,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -1530,7 +1755,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -1646,7 +1874,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -1762,7 +1993,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
@@ -1878,7 +2112,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
@@ -1994,7 +2231,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -2110,7 +2350,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -2226,7 +2469,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -2342,7 +2588,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
@@ -2458,7 +2707,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -2574,7 +2826,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -2690,7 +2945,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B22" t="s">
         <v>0</v>
       </c>
@@ -2806,7 +3064,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B23" t="s">
         <v>0</v>
       </c>
@@ -2922,7 +3183,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
@@ -3038,7 +3302,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
@@ -3154,7 +3421,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B26" t="s">
         <v>0</v>
       </c>
@@ -3270,7 +3540,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
@@ -3386,7 +3659,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B28" t="s">
         <v>0</v>
       </c>
@@ -3502,7 +3778,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B29" t="s">
         <v>2</v>
       </c>
@@ -3618,7 +3897,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B30" t="s">
         <v>2</v>
       </c>
@@ -3734,7 +4016,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -3850,7 +4135,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
@@ -3966,7 +4254,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
@@ -4082,7 +4373,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B34" t="s">
         <v>0</v>
       </c>
@@ -4198,7 +4492,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B35" t="s">
         <v>0</v>
       </c>
@@ -4314,7 +4611,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -4430,7 +4730,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
@@ -4546,7 +4849,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B38" t="s">
         <v>0</v>
       </c>
@@ -4662,7 +4968,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B39" t="s">
         <v>0</v>
       </c>
@@ -4778,7 +5087,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B40" t="s">
         <v>0</v>
       </c>
@@ -4894,7 +5206,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B41" t="s">
         <v>0</v>
       </c>
@@ -5010,7 +5325,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
@@ -5126,7 +5444,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B43" t="s">
         <v>0</v>
       </c>
@@ -5242,7 +5563,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B44" t="s">
         <v>0</v>
       </c>
@@ -5358,7 +5682,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -5474,7 +5801,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B46" t="s">
         <v>0</v>
       </c>
@@ -5590,7 +5920,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B47" t="s">
         <v>0</v>
       </c>
@@ -5706,7 +6039,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B48" t="s">
         <v>0</v>
       </c>
@@ -5822,7 +6158,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B49" t="s">
         <v>0</v>
       </c>
@@ -5938,7 +6277,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B50" t="s">
         <v>1</v>
       </c>
@@ -6054,7 +6396,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B51" t="s">
         <v>0</v>
       </c>
@@ -6170,7 +6515,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B52" t="s">
         <v>0</v>
       </c>
@@ -6286,7 +6634,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B53" t="s">
         <v>0</v>
       </c>
@@ -6402,7 +6753,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B54" t="s">
         <v>0</v>
       </c>
@@ -6518,7 +6872,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B55" t="s">
         <v>0</v>
       </c>
@@ -6634,7 +6991,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B56" t="s">
         <v>0</v>
       </c>
@@ -6750,7 +7110,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B57" t="s">
         <v>0</v>
       </c>
@@ -6866,7 +7229,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B58" t="s">
         <v>1</v>
       </c>
@@ -6982,7 +7348,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B59" t="s">
         <v>0</v>
       </c>
@@ -7098,7 +7467,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B60" t="s">
         <v>0</v>
       </c>
@@ -7214,7 +7586,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -7246,7 +7621,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B62" t="s">
         <v>1</v>
       </c>
@@ -7362,7 +7740,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B63" t="s">
         <v>0</v>
       </c>
@@ -7478,7 +7859,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B64" t="s">
         <v>0</v>
       </c>
@@ -7594,7 +7978,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B65" t="s">
         <v>0</v>
       </c>
@@ -7710,7 +8097,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B66" t="s">
         <v>1</v>
       </c>
@@ -7826,7 +8216,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -7942,7 +8335,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B68" t="s">
         <v>0</v>
       </c>
@@ -8058,7 +8454,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B69" t="s">
         <v>0</v>
       </c>
@@ -8174,7 +8573,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B70" t="s">
         <v>0</v>
       </c>
@@ -8290,7 +8692,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B71" t="s">
         <v>0</v>
       </c>
@@ -8406,7 +8811,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B72" t="s">
         <v>0</v>
       </c>
@@ -8522,7 +8930,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B73" t="s">
         <v>0</v>
       </c>
@@ -8638,7 +9049,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B74" t="s">
         <v>0</v>
       </c>
@@ -8754,7 +9168,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B75" t="s">
         <v>0</v>
       </c>
@@ -8870,7 +9287,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B76" t="s">
         <v>0</v>
       </c>
@@ -8986,7 +9406,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B77" t="s">
         <v>1</v>
       </c>
@@ -9102,7 +9525,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B78" t="s">
         <v>0</v>
       </c>
@@ -9218,7 +9644,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B79" t="s">
         <v>0</v>
       </c>
@@ -9334,7 +9763,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B80" t="s">
         <v>0</v>
       </c>
@@ -9450,7 +9882,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B81" t="s">
         <v>0</v>
       </c>
@@ -9566,7 +10001,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B82" t="s">
         <v>0</v>
       </c>
@@ -9682,7 +10120,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B83" t="s">
         <v>0</v>
       </c>
@@ -9798,7 +10239,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B84" t="s">
         <v>0</v>
       </c>
@@ -9914,7 +10358,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B85" t="s">
         <v>0</v>
       </c>
@@ -10030,7 +10477,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B86" t="s">
         <v>0</v>
       </c>
@@ -10146,7 +10596,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B87" t="s">
         <v>0</v>
       </c>
@@ -10262,7 +10715,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B88" t="s">
         <v>0</v>
       </c>
@@ -10378,7 +10834,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B89" t="s">
         <v>0</v>
       </c>
@@ -10494,7 +10953,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B90" t="s">
         <v>0</v>
       </c>
@@ -10610,7 +11072,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B91" t="s">
         <v>0</v>
       </c>
@@ -10726,7 +11191,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B92" t="s">
         <v>0</v>
       </c>
@@ -10842,7 +11310,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B93" t="s">
         <v>0</v>
       </c>
@@ -10958,7 +11429,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B94" t="s">
         <v>0</v>
       </c>
@@ -11074,7 +11548,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B95" t="s">
         <v>0</v>
       </c>
@@ -11190,7 +11667,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B96" t="s">
         <v>0</v>
       </c>
@@ -11306,7 +11786,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:39">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B97" t="s">
         <v>0</v>
       </c>
@@ -11422,7 +11905,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:39">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B98" t="s">
         <v>1</v>
       </c>
@@ -11538,7 +12024,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:39">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B99" t="s">
         <v>0</v>
       </c>
@@ -11654,7 +12143,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:39">
+    <row r="100" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B100" t="s">
         <v>2</v>
       </c>
@@ -11770,7 +12262,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:39">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B101" t="s">
         <v>0</v>
       </c>
@@ -11886,7 +12381,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:39">
+    <row r="102" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B102" t="s">
         <v>0</v>
       </c>
@@ -12002,7 +12500,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:39">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B103" t="s">
         <v>0</v>
       </c>
@@ -12118,7 +12619,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:39">
+    <row r="104" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B104" t="s">
         <v>1</v>
       </c>
@@ -12234,7 +12738,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:39">
+    <row r="105" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B105" t="s">
         <v>0</v>
       </c>
@@ -12350,7 +12857,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:39">
+    <row r="106" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B106" t="s">
         <v>0</v>
       </c>
@@ -12466,7 +12976,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:39">
+    <row r="107" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B107" t="s">
         <v>0</v>
       </c>
@@ -12582,7 +13095,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:39">
+    <row r="108" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B108" t="s">
         <v>0</v>
       </c>
@@ -12698,7 +13214,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:39">
+    <row r="109" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B109" t="s">
         <v>1</v>
       </c>
@@ -12814,7 +13333,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:39">
+    <row r="110" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B110" t="s">
         <v>0</v>
       </c>
@@ -12930,7 +13452,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:39">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B111" t="s">
         <v>0</v>
       </c>
@@ -13046,7 +13571,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:39">
+    <row r="112" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B112" t="s">
         <v>0</v>
       </c>
@@ -13162,7 +13690,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:39">
+    <row r="113" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B113" t="s">
         <v>0</v>
       </c>
@@ -13278,7 +13809,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:39">
+    <row r="114" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B114" t="s">
         <v>0</v>
       </c>
@@ -13394,7 +13928,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:39">
+    <row r="115" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B115" t="s">
         <v>0</v>
       </c>
@@ -13510,7 +14047,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:39">
+    <row r="116" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B116" t="s">
         <v>0</v>
       </c>
@@ -13626,7 +14166,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:39">
+    <row r="117" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B117" t="s">
         <v>0</v>
       </c>
@@ -13742,7 +14285,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:39">
+    <row r="118" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -13858,7 +14404,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:39">
+    <row r="119" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B119" t="s">
         <v>1</v>
       </c>
@@ -13974,7 +14523,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:39">
+    <row r="120" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B120" t="s">
         <v>1</v>
       </c>
@@ -14090,7 +14642,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:39">
+    <row r="121" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B121" t="s">
         <v>1</v>
       </c>
@@ -14206,7 +14761,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:39">
+    <row r="122" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B122" t="s">
         <v>1</v>
       </c>
@@ -14322,7 +14880,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:39">
+    <row r="123" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B123" t="s">
         <v>0</v>
       </c>
@@ -14438,7 +14999,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:39">
+    <row r="124" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B124" t="s">
         <v>0</v>
       </c>
@@ -14554,7 +15118,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:39">
+    <row r="125" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B125" t="s">
         <v>0</v>
       </c>
@@ -14670,7 +15237,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:39">
+    <row r="126" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B126" t="s">
         <v>0</v>
       </c>
@@ -14786,7 +15356,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:39">
+    <row r="127" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B127" t="s">
         <v>0</v>
       </c>
@@ -14902,7 +15475,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:39">
+    <row r="128" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B128" t="s">
         <v>0</v>
       </c>
@@ -15018,7 +15594,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:39">
+    <row r="129" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B129" t="s">
         <v>0</v>
       </c>
@@ -15134,7 +15713,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:39">
+    <row r="130" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B130" t="s">
         <v>0</v>
       </c>
@@ -15250,7 +15832,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:39">
+    <row r="131" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B131" t="s">
         <v>0</v>
       </c>
@@ -15366,7 +15951,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:39">
+    <row r="132" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B132" t="s">
         <v>0</v>
       </c>
@@ -15482,7 +16070,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:39">
+    <row r="133" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B133" t="s">
         <v>0</v>
       </c>
@@ -15598,7 +16189,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:39">
+    <row r="134" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B134" t="s">
         <v>1</v>
       </c>
@@ -15714,7 +16308,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:39">
+    <row r="135" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B135" t="s">
         <v>0</v>
       </c>
@@ -15830,7 +16427,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:39">
+    <row r="136" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B136" t="s">
         <v>0</v>
       </c>
@@ -15946,7 +16546,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:39">
+    <row r="137" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B137" t="s">
         <v>0</v>
       </c>
@@ -16062,7 +16665,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:39">
+    <row r="138" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B138" t="s">
         <v>0</v>
       </c>
@@ -16178,7 +16784,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:39">
+    <row r="139" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B139" t="s">
         <v>0</v>
       </c>
@@ -16294,7 +16903,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:39">
+    <row r="140" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B140" t="s">
         <v>0</v>
       </c>
@@ -16410,7 +17022,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:39">
+    <row r="141" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B141" t="s">
         <v>0</v>
       </c>
@@ -16526,7 +17141,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:39">
+    <row r="142" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B142" t="s">
         <v>0</v>
       </c>
@@ -16642,7 +17260,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:39">
+    <row r="143" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B143" t="s">
         <v>0</v>
       </c>
@@ -16758,7 +17379,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:39">
+    <row r="144" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B144" t="s">
         <v>0</v>
       </c>
@@ -16874,7 +17498,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:39">
+    <row r="145" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B145" t="s">
         <v>0</v>
       </c>
@@ -16990,7 +17617,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:39">
+    <row r="146" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B146" t="s">
         <v>0</v>
       </c>
@@ -17106,7 +17736,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:39">
+    <row r="147" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B147" t="s">
         <v>0</v>
       </c>
@@ -17222,7 +17855,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:39">
+    <row r="148" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B148" t="s">
         <v>0</v>
       </c>
@@ -17338,7 +17974,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:39">
+    <row r="149" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B149" t="s">
         <v>0</v>
       </c>
@@ -17454,7 +18093,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:39">
+    <row r="150" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B150" t="s">
         <v>0</v>
       </c>
@@ -17570,7 +18212,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:39">
+    <row r="151" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B151" t="s">
         <v>2</v>
       </c>
@@ -17686,7 +18331,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:39">
+    <row r="152" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B152" t="s">
         <v>0</v>
       </c>
@@ -17802,7 +18450,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:39">
+    <row r="153" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B153" t="s">
         <v>0</v>
       </c>
@@ -17918,7 +18569,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:39">
+    <row r="154" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B154" t="s">
         <v>0</v>
       </c>
@@ -18034,7 +18688,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:39">
+    <row r="155" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B155" t="s">
         <v>1</v>
       </c>
@@ -18150,7 +18807,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:39">
+    <row r="156" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B156" t="s">
         <v>0</v>
       </c>
@@ -18266,7 +18926,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:39">
+    <row r="157" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B157" t="s">
         <v>0</v>
       </c>
@@ -18382,7 +19045,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:39">
+    <row r="158" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B158" t="s">
         <v>0</v>
       </c>
@@ -18498,7 +19164,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:39">
+    <row r="159" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B159" t="s">
         <v>0</v>
       </c>
@@ -18614,7 +19283,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:39">
+    <row r="160" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B160" t="s">
         <v>0</v>
       </c>
@@ -18730,7 +19402,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:39">
+    <row r="161" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B161" t="s">
         <v>0</v>
       </c>
@@ -18846,7 +19521,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:39">
+    <row r="162" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B162" t="s">
         <v>0</v>
       </c>
@@ -18962,7 +19640,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:39">
+    <row r="163" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B163" t="s">
         <v>2</v>
       </c>
@@ -19078,7 +19759,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:39">
+    <row r="164" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B164" t="s">
         <v>0</v>
       </c>
@@ -19194,7 +19878,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:39">
+    <row r="165" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B165" t="s">
         <v>0</v>
       </c>
@@ -19310,7 +19997,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:39">
+    <row r="166" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B166" t="s">
         <v>0</v>
       </c>
@@ -19426,7 +20116,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:39">
+    <row r="167" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B167" t="s">
         <v>0</v>
       </c>
@@ -19542,7 +20235,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:39">
+    <row r="168" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B168" t="s">
         <v>0</v>
       </c>
@@ -19658,7 +20354,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:39">
+    <row r="169" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B169" t="s">
         <v>0</v>
       </c>
@@ -19774,7 +20473,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:39">
+    <row r="170" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B170" t="s">
         <v>0</v>
       </c>
@@ -19890,7 +20592,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:39">
+    <row r="171" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B171" t="s">
         <v>0</v>
       </c>
@@ -20006,7 +20711,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:39">
+    <row r="172" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B172" t="s">
         <v>0</v>
       </c>
@@ -20122,7 +20830,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:39">
+    <row r="173" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B173" t="s">
         <v>0</v>
       </c>
@@ -20238,7 +20949,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:39">
+    <row r="174" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B174" t="s">
         <v>0</v>
       </c>
@@ -20354,7 +21068,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:39">
+    <row r="175" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B175" t="s">
         <v>0</v>
       </c>
@@ -20470,7 +21187,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:39">
+    <row r="176" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B176" t="s">
         <v>0</v>
       </c>
@@ -20586,7 +21306,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:39">
+    <row r="177" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B177" t="s">
         <v>1</v>
       </c>
@@ -20702,7 +21425,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:39">
+    <row r="178" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B178" t="s">
         <v>0</v>
       </c>
@@ -20818,7 +21544,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:39">
+    <row r="179" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B179" t="s">
         <v>0</v>
       </c>
@@ -20934,7 +21663,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:39">
+    <row r="180" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B180" t="s">
         <v>0</v>
       </c>
@@ -21050,7 +21782,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:39">
+    <row r="181" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B181" t="s">
         <v>0</v>
       </c>
@@ -21166,7 +21901,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:39">
+    <row r="182" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B182" t="s">
         <v>0</v>
       </c>
@@ -21282,7 +22020,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:39">
+    <row r="183" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B183" t="s">
         <v>0</v>
       </c>
@@ -21398,7 +22139,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:39">
+    <row r="184" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B184" t="s">
         <v>0</v>
       </c>
@@ -21514,7 +22258,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:39">
+    <row r="185" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B185" t="s">
         <v>0</v>
       </c>
@@ -21630,7 +22377,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:39">
+    <row r="186" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B186" t="s">
         <v>0</v>
       </c>
@@ -21746,7 +22496,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:39">
+    <row r="187" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B187" t="s">
         <v>0</v>
       </c>
@@ -21862,7 +22615,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:39">
+    <row r="188" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B188" t="s">
         <v>0</v>
       </c>
@@ -21978,7 +22734,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:39">
+    <row r="189" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B189" t="s">
         <v>0</v>
       </c>
@@ -22094,7 +22853,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:39">
+    <row r="190" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B190" t="s">
         <v>0</v>
       </c>
@@ -22210,7 +22972,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:39">
+    <row r="191" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B191" t="s">
         <v>0</v>
       </c>
@@ -22326,7 +23091,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:39">
+    <row r="192" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B192" t="s">
         <v>0</v>
       </c>
@@ -22442,7 +23210,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:39">
+    <row r="193" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B193" t="s">
         <v>0</v>
       </c>
@@ -22558,7 +23329,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:39">
+    <row r="194" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B194" t="s">
         <v>0</v>
       </c>
@@ -22674,7 +23448,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:39">
+    <row r="195" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B195" t="s">
         <v>0</v>
       </c>
@@ -22790,7 +23567,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:39">
+    <row r="196" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B196" t="s">
         <v>0</v>
       </c>
@@ -22906,7 +23686,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:39">
+    <row r="197" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B197" t="s">
         <v>0</v>
       </c>
@@ -23022,7 +23805,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:39">
+    <row r="198" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B198" t="s">
         <v>0</v>
       </c>
@@ -23138,7 +23924,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:39">
+    <row r="199" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B199" t="s">
         <v>0</v>
       </c>
@@ -23254,7 +24043,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:39">
+    <row r="200" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B200" t="s">
         <v>0</v>
       </c>
@@ -23370,7 +24162,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:39">
+    <row r="201" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B201" t="s">
         <v>0</v>
       </c>
@@ -23486,7 +24281,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:39">
+    <row r="202" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B202" t="s">
         <v>2</v>
       </c>
@@ -23602,7 +24400,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:39">
+    <row r="203" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B203" t="s">
         <v>0</v>
       </c>
@@ -23718,7 +24519,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:39">
+    <row r="204" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B204" t="s">
         <v>0</v>
       </c>
@@ -23834,7 +24638,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:39">
+    <row r="205" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B205" t="s">
         <v>0</v>
       </c>
@@ -23950,7 +24757,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:39">
+    <row r="206" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B206" t="s">
         <v>0</v>
       </c>
@@ -24066,7 +24876,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:39">
+    <row r="207" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B207" t="s">
         <v>0</v>
       </c>
@@ -24182,7 +24995,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:39">
+    <row r="208" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B208" t="s">
         <v>0</v>
       </c>
@@ -24298,7 +25114,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:39">
+    <row r="209" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B209" t="s">
         <v>0</v>
       </c>
@@ -24414,7 +25233,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:39">
+    <row r="210" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B210" t="s">
         <v>0</v>
       </c>
@@ -24530,7 +25352,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:39">
+    <row r="211" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B211" t="s">
         <v>0</v>
       </c>
@@ -24646,7 +25471,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:39">
+    <row r="212" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B212" t="s">
         <v>0</v>
       </c>
@@ -24762,7 +25590,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:39">
+    <row r="213" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B213" t="s">
         <v>0</v>
       </c>
@@ -24878,7 +25709,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:39">
+    <row r="214" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B214" t="s">
         <v>0</v>
       </c>
@@ -24994,7 +25828,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:39">
+    <row r="215" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B215" t="s">
         <v>0</v>
       </c>
@@ -25110,7 +25947,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:39">
+    <row r="216" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B216" t="s">
         <v>0</v>
       </c>
@@ -25226,7 +26066,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:39">
+    <row r="217" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B217" t="s">
         <v>0</v>
       </c>
@@ -25342,7 +26185,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:39">
+    <row r="218" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B218" t="s">
         <v>0</v>
       </c>
@@ -25458,7 +26304,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:39">
+    <row r="219" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B219" t="s">
         <v>0</v>
       </c>
@@ -25574,7 +26423,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:39">
+    <row r="220" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B220" t="s">
         <v>0</v>
       </c>
@@ -25690,7 +26542,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:39">
+    <row r="221" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B221" t="s">
         <v>0</v>
       </c>
@@ -25806,7 +26661,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:39">
+    <row r="222" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B222" t="s">
         <v>0</v>
       </c>
@@ -25922,7 +26780,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:39">
+    <row r="223" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B223" t="s">
         <v>0</v>
       </c>
@@ -26038,7 +26899,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:39">
+    <row r="224" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B224" t="s">
         <v>0</v>
       </c>
@@ -26154,7 +27018,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:39">
+    <row r="225" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B225" t="s">
         <v>0</v>
       </c>
@@ -26270,7 +27137,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:39">
+    <row r="226" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B226" t="s">
         <v>0</v>
       </c>
@@ -26386,7 +27256,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:39">
+    <row r="227" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B227" t="s">
         <v>0</v>
       </c>
@@ -26502,7 +27375,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:39">
+    <row r="228" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B228" t="s">
         <v>0</v>
       </c>
@@ -26618,7 +27494,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:39">
+    <row r="229" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B229" t="s">
         <v>0</v>
       </c>
@@ -26734,7 +27613,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:39">
+    <row r="230" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B230" t="s">
         <v>0</v>
       </c>
@@ -26850,7 +27732,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:39">
+    <row r="231" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B231" t="s">
         <v>0</v>
       </c>
@@ -26966,7 +27851,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:39">
+    <row r="232" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B232" t="s">
         <v>0</v>
       </c>
@@ -27082,7 +27970,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:39">
+    <row r="233" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B233" t="s">
         <v>0</v>
       </c>
@@ -27198,7 +28089,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:39">
+    <row r="234" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B234" t="s">
         <v>0</v>
       </c>
@@ -27314,7 +28208,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:39">
+    <row r="235" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B235" t="s">
         <v>0</v>
       </c>
@@ -27430,7 +28327,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:39">
+    <row r="236" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B236" t="s">
         <v>0</v>
       </c>
@@ -27546,7 +28446,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:39">
+    <row r="237" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B237" t="s">
         <v>0</v>
       </c>
@@ -27662,7 +28565,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:39">
+    <row r="238" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B238" t="s">
         <v>0</v>
       </c>
@@ -27778,7 +28684,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:39">
+    <row r="239" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B239" t="s">
         <v>0</v>
       </c>
@@ -27894,7 +28803,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:39">
+    <row r="240" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B240" t="s">
         <v>0</v>
       </c>
@@ -28010,7 +28922,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:39">
+    <row r="241" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B241" t="s">
         <v>0</v>
       </c>
@@ -28126,7 +29041,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:39">
+    <row r="242" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B242" t="s">
         <v>0</v>
       </c>
@@ -28242,7 +29160,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:39">
+    <row r="243" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B243" t="s">
         <v>0</v>
       </c>
@@ -28358,7 +29279,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:39">
+    <row r="244" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B244" t="s">
         <v>0</v>
       </c>
@@ -28474,7 +29398,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:39">
+    <row r="245" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B245" t="s">
         <v>0</v>
       </c>
@@ -28590,7 +29517,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:39">
+    <row r="246" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B246" t="s">
         <v>0</v>
       </c>
@@ -28706,7 +29636,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:39">
+    <row r="247" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B247" t="s">
         <v>0</v>
       </c>
@@ -28822,7 +29755,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:39">
+    <row r="248" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B248" t="s">
         <v>0</v>
       </c>
@@ -28938,7 +29874,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:39">
+    <row r="249" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B249" t="s">
         <v>0</v>
       </c>
@@ -29054,7 +29993,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:39">
+    <row r="250" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B250" t="s">
         <v>0</v>
       </c>
@@ -29170,7 +30112,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:39">
+    <row r="251" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B251" t="s">
         <v>0</v>
       </c>
@@ -29286,7 +30231,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:39">
+    <row r="252" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B252" t="s">
         <v>0</v>
       </c>
@@ -29402,7 +30350,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:39">
+    <row r="253" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B253" t="s">
         <v>0</v>
       </c>
@@ -29518,7 +30469,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:39">
+    <row r="254" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B254" t="s">
         <v>0</v>
       </c>
@@ -29634,7 +30588,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:39">
+    <row r="255" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B255" t="s">
         <v>0</v>
       </c>
@@ -29750,7 +30707,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:39">
+    <row r="256" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B256" t="s">
         <v>0</v>
       </c>
@@ -29866,7 +30826,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:39">
+    <row r="257" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B257" t="s">
         <v>0</v>
       </c>
@@ -29982,7 +30945,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:39">
+    <row r="258" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B258" t="s">
         <v>0</v>
       </c>
@@ -30098,7 +31064,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:39">
+    <row r="259" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B259" t="s">
         <v>2</v>
       </c>
@@ -30214,7 +31183,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:39">
+    <row r="260" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B260" t="s">
         <v>0</v>
       </c>
@@ -30330,7 +31302,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:39">
+    <row r="261" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B261" t="s">
         <v>0</v>
       </c>
@@ -30446,7 +31421,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:39">
+    <row r="262" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B262" t="s">
         <v>0</v>
       </c>
@@ -30562,7 +31540,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:39">
+    <row r="263" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B263" t="s">
         <v>0</v>
       </c>
@@ -30678,7 +31659,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:39">
+    <row r="264" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B264" t="s">
         <v>0</v>
       </c>
@@ -30794,7 +31778,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:39">
+    <row r="265" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B265" t="s">
         <v>2</v>
       </c>
@@ -30910,7 +31897,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:39">
+    <row r="266" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B266" t="s">
         <v>0</v>
       </c>
@@ -31026,7 +32016,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:39">
+    <row r="267" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B267" t="s">
         <v>0</v>
       </c>
@@ -31142,7 +32135,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:39">
+    <row r="268" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B268" t="s">
         <v>0</v>
       </c>
@@ -31258,7 +32254,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:39">
+    <row r="269" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B269" t="s">
         <v>0</v>
       </c>
@@ -31374,7 +32373,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:39">
+    <row r="270" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B270" t="s">
         <v>0</v>
       </c>
@@ -31490,7 +32492,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:39">
+    <row r="271" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B271" t="s">
         <v>0</v>
       </c>
@@ -31606,7 +32611,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:39">
+    <row r="272" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B272" t="s">
         <v>2</v>
       </c>
@@ -31722,7 +32730,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:39">
+    <row r="273" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B273" t="s">
         <v>1</v>
       </c>
@@ -31838,7 +32849,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:39">
+    <row r="274" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B274" t="s">
         <v>1</v>
       </c>
@@ -31954,7 +32968,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:39">
+    <row r="275" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B275" t="s">
         <v>0</v>
       </c>
@@ -32070,7 +33087,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:39">
+    <row r="276" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B276" t="s">
         <v>0</v>
       </c>
@@ -32186,7 +33206,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:39">
+    <row r="277" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B277" t="s">
         <v>0</v>
       </c>
@@ -32302,7 +33325,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:39">
+    <row r="278" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B278" t="s">
         <v>0</v>
       </c>
@@ -32418,7 +33444,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:39">
+    <row r="279" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B279" t="s">
         <v>0</v>
       </c>
@@ -32534,7 +33563,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:39">
+    <row r="280" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B280" t="s">
         <v>0</v>
       </c>
@@ -32650,7 +33682,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:39">
+    <row r="281" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B281" t="s">
         <v>0</v>
       </c>
@@ -32766,7 +33801,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:39">
+    <row r="282" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B282" t="s">
         <v>1</v>
       </c>
@@ -32882,7 +33920,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:39">
+    <row r="283" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B283" t="s">
         <v>0</v>
       </c>
@@ -32998,7 +34039,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:39">
+    <row r="284" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B284" t="s">
         <v>2</v>
       </c>
@@ -33114,7 +34158,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:39">
+    <row r="285" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B285" t="s">
         <v>0</v>
       </c>
@@ -33230,7 +34277,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:39">
+    <row r="286" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B286" t="s">
         <v>0</v>
       </c>
@@ -33346,7 +34396,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:39">
+    <row r="287" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B287" t="s">
         <v>0</v>
       </c>
@@ -33462,7 +34515,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:39">
+    <row r="288" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B288" t="s">
         <v>0</v>
       </c>
@@ -33578,7 +34634,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:39">
+    <row r="289" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B289" t="s">
         <v>0</v>
       </c>
@@ -33694,7 +34753,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:39">
+    <row r="290" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B290" t="s">
         <v>0</v>
       </c>
@@ -33810,7 +34872,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:39">
+    <row r="291" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B291" t="s">
         <v>0</v>
       </c>
@@ -33926,7 +34991,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:39">
+    <row r="292" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B292" t="s">
         <v>2</v>
       </c>
@@ -34042,7 +35110,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:39">
+    <row r="293" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B293" t="s">
         <v>2</v>
       </c>
@@ -34158,7 +35229,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:39">
+    <row r="294" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B294" t="s">
         <v>0</v>
       </c>
@@ -34274,7 +35348,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:39">
+    <row r="295" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B295" t="s">
         <v>0</v>
       </c>
@@ -34390,7 +35467,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:39">
+    <row r="296" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B296" t="s">
         <v>0</v>
       </c>
@@ -34506,7 +35586,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:39">
+    <row r="297" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B297" t="s">
         <v>2</v>
       </c>
@@ -34622,7 +35705,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:39">
+    <row r="298" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B298" t="s">
         <v>0</v>
       </c>
@@ -34738,7 +35824,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:39">
+    <row r="299" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B299" t="s">
         <v>0</v>
       </c>
@@ -34854,7 +35943,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:39">
+    <row r="300" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B300" t="s">
         <v>2</v>
       </c>
@@ -34970,7 +36062,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:39">
+    <row r="301" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B301" t="s">
         <v>0</v>
       </c>
@@ -35086,7 +36181,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:39">
+    <row r="302" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B302" t="s">
         <v>0</v>
       </c>
@@ -35202,7 +36300,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:39">
+    <row r="303" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B303" t="s">
         <v>0</v>
       </c>
@@ -35318,7 +36419,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:39">
+    <row r="304" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B304" t="s">
         <v>0</v>
       </c>
@@ -35434,7 +36538,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:39">
+    <row r="305" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B305" t="s">
         <v>0</v>
       </c>
@@ -35550,7 +36657,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:39">
+    <row r="306" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B306" t="s">
         <v>1</v>
       </c>
@@ -35666,7 +36776,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:39">
+    <row r="307" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B307" t="s">
         <v>0</v>
       </c>
@@ -35782,7 +36895,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:39">
+    <row r="308" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B308" t="s">
         <v>0</v>
       </c>
@@ -35898,7 +37014,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:39">
+    <row r="309" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B309" t="s">
         <v>0</v>
       </c>
@@ -36014,7 +37133,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:39">
+    <row r="310" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B310" t="s">
         <v>2</v>
       </c>
@@ -36130,7 +37252,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:39">
+    <row r="311" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B311" t="s">
         <v>2</v>
       </c>
@@ -36246,7 +37371,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:39">
+    <row r="312" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B312" t="s">
         <v>1</v>
       </c>
@@ -36362,7 +37490,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:39">
+    <row r="313" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B313" t="s">
         <v>0</v>
       </c>
@@ -36478,7 +37609,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:39">
+    <row r="314" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B314" t="s">
         <v>0</v>
       </c>
@@ -36594,7 +37728,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:39">
+    <row r="315" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B315" t="s">
         <v>1</v>
       </c>
@@ -36710,7 +37847,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:39">
+    <row r="316" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B316" t="s">
         <v>1</v>
       </c>
@@ -36826,7 +37966,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:39">
+    <row r="317" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B317" t="s">
         <v>0</v>
       </c>
@@ -36942,7 +38085,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:39">
+    <row r="318" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B318" t="s">
         <v>2</v>
       </c>
@@ -37058,7 +38204,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:39">
+    <row r="319" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B319" t="s">
         <v>0</v>
       </c>
@@ -37174,7 +38323,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:39">
+    <row r="320" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B320" t="s">
         <v>0</v>
       </c>
@@ -37290,7 +38442,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:39">
+    <row r="321" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B321" t="s">
         <v>0</v>
       </c>
@@ -37406,7 +38561,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:39">
+    <row r="322" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B322" t="s">
         <v>1</v>
       </c>
@@ -37522,7 +38680,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:39">
+    <row r="323" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B323" t="s">
         <v>1</v>
       </c>
@@ -37638,7 +38799,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:39">
+    <row r="324" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B324" t="s">
         <v>1</v>
       </c>
@@ -37754,7 +38918,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:39">
+    <row r="325" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B325" t="s">
         <v>0</v>
       </c>
@@ -37870,7 +39037,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:39">
+    <row r="326" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B326" t="s">
         <v>1</v>
       </c>
@@ -37986,7 +39156,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:39">
+    <row r="327" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B327" t="s">
         <v>1</v>
       </c>
@@ -38102,7 +39275,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:39">
+    <row r="328" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B328" t="s">
         <v>1</v>
       </c>
@@ -38218,7 +39394,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:39">
+    <row r="329" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B329" t="s">
         <v>1</v>
       </c>
@@ -38334,7 +39513,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:39">
+    <row r="330" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B330" t="s">
         <v>1</v>
       </c>
@@ -38450,7 +39632,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:39">
+    <row r="331" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B331" t="s">
         <v>1</v>
       </c>
@@ -38566,7 +39751,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:39">
+    <row r="332" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B332" t="s">
         <v>0</v>
       </c>
@@ -38682,7 +39870,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:39">
+    <row r="333" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B333" t="s">
         <v>1</v>
       </c>
@@ -38798,7 +39989,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:39">
+    <row r="334" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B334" t="s">
         <v>0</v>
       </c>
@@ -38914,7 +40108,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:39">
+    <row r="335" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B335" t="s">
         <v>0</v>
       </c>
@@ -39030,7 +40227,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:39">
+    <row r="336" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B336" t="s">
         <v>0</v>
       </c>
@@ -39146,7 +40346,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:39">
+    <row r="337" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B337" t="s">
         <v>0</v>
       </c>
@@ -39262,7 +40465,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:39">
+    <row r="338" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B338" t="s">
         <v>0</v>
       </c>
@@ -39378,7 +40584,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:39">
+    <row r="339" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B339" t="s">
         <v>3</v>
       </c>
@@ -39494,7 +40703,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:39">
+    <row r="340" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B340" t="s">
         <v>2</v>
       </c>
@@ -39610,7 +40822,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:39">
+    <row r="341" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B341" t="s">
         <v>0</v>
       </c>
@@ -39726,7 +40941,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:39">
+    <row r="342" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B342" t="s">
         <v>0</v>
       </c>
@@ -39842,7 +41060,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:39">
+    <row r="343" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B343" t="s">
         <v>0</v>
       </c>
@@ -39958,7 +41179,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:39">
+    <row r="344" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B344" t="s">
         <v>0</v>
       </c>
@@ -40074,7 +41298,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:39">
+    <row r="345" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B345" t="s">
         <v>3</v>
       </c>
@@ -40190,7 +41417,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:39">
+    <row r="346" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B346" t="s">
         <v>1</v>
       </c>
@@ -40306,7 +41536,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:39">
+    <row r="347" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B347" t="s">
         <v>3</v>
       </c>
@@ -40422,7 +41655,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:39">
+    <row r="348" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B348" t="s">
         <v>0</v>
       </c>
@@ -40538,7 +41774,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:39">
+    <row r="349" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B349" t="s">
         <v>0</v>
       </c>
@@ -40654,7 +41893,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:39">
+    <row r="350" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B350" t="s">
         <v>0</v>
       </c>
@@ -40770,7 +42012,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:39">
+    <row r="351" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B351" t="s">
         <v>0</v>
       </c>
@@ -40886,7 +42131,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:39">
+    <row r="352" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B352" t="s">
         <v>0</v>
       </c>
@@ -41002,7 +42250,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:39">
+    <row r="353" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B353" t="s">
         <v>3</v>
       </c>
@@ -41118,7 +42369,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:39">
+    <row r="354" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B354" t="s">
         <v>0</v>
       </c>
@@ -41234,7 +42488,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:39">
+    <row r="355" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B355" t="s">
         <v>0</v>
       </c>
@@ -41350,7 +42607,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:39">
+    <row r="356" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B356" t="s">
         <v>0</v>
       </c>
@@ -41466,7 +42726,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:39">
+    <row r="357" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B357" t="s">
         <v>0</v>
       </c>
@@ -41582,7 +42845,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:39">
+    <row r="358" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B358" t="s">
         <v>3</v>
       </c>
@@ -41698,7 +42964,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:39">
+    <row r="359" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B359" t="s">
         <v>3</v>
       </c>
@@ -41814,7 +43083,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:39">
+    <row r="360" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B360" t="s">
         <v>0</v>
       </c>
@@ -41930,7 +43202,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:39">
+    <row r="361" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B361" t="s">
         <v>0</v>
       </c>
@@ -42046,7 +43321,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:39">
+    <row r="362" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B362" t="s">
         <v>0</v>
       </c>
@@ -42162,7 +43440,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:39">
+    <row r="363" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B363" t="s">
         <v>0</v>
       </c>
@@ -42278,7 +43559,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:39">
+    <row r="364" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B364" t="s">
         <v>0</v>
       </c>
@@ -42394,7 +43678,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:39">
+    <row r="365" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B365" t="s">
         <v>0</v>
       </c>
@@ -42510,7 +43797,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:39">
+    <row r="366" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B366" t="s">
         <v>0</v>
       </c>
@@ -42626,7 +43916,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:39">
+    <row r="367" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B367" t="s">
         <v>0</v>
       </c>
@@ -42743,6 +44036,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/python/Statistics/Results/RST_classification_ERA_2.5_1979-2016.xlsx
+++ b/python/Statistics/Results/RST_classification_ERA_2.5_1979-2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hatzv\Documents\Geography\RSTs\python\Statistics\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D547F438-3319-46F9-A500-E47C4EFD35B0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DBA1C1-EA05-4477-A14D-7115E88E1CCD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14246" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14249" uniqueCount="16">
   <si>
     <t>No RST</t>
   </si>
@@ -430,15 +430,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN367"/>
+  <dimension ref="A1:AQ367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AO4" sqref="AO4:AQ4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1979</v>
@@ -593,7 +593,7 @@
       </c>
       <c r="AN1" s="1"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -711,8 +711,17 @@
       <c r="AM2" t="s">
         <v>0</v>
       </c>
+      <c r="AO2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -830,8 +839,20 @@
       <c r="AM3" t="s">
         <v>0</v>
       </c>
+      <c r="AO3">
+        <f>COUNTIF($B$2:$AM$367, "East")</f>
+        <v>1150</v>
+      </c>
+      <c r="AP3">
+        <f>COUNTIF($B$2:$AM$367, "Central")</f>
+        <v>1287</v>
+      </c>
+      <c r="AQ3">
+        <f>COUNTIF($B$2:$AM$367, "West")</f>
+        <v>424</v>
+      </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -949,8 +970,20 @@
       <c r="AM4" t="s">
         <v>0</v>
       </c>
+      <c r="AO4">
+        <f>AO3/SUM($AO$3:$AQ$3)*100</f>
+        <v>40.195735756728418</v>
+      </c>
+      <c r="AP4">
+        <f t="shared" ref="AP4:AQ4" si="1">AP3/SUM($AO$3:$AQ$3)*100</f>
+        <v>44.98427123383432</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" si="1"/>
+        <v>14.81999300943726</v>
+      </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1069,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1188,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1307,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1426,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1545,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1664,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1783,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1902,7 +1935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -2021,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -2140,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2259,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -2378,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -2497,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -2616,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -2735,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -2854,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -2973,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -3092,7 +3125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -3211,7 +3244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -3330,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -3449,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -3568,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -3687,7 +3720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -3806,7 +3839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -3925,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -4044,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -4163,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
@@ -4282,7 +4315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -4401,7 +4434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -4520,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -4639,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -4758,7 +4791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -4877,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -4996,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -5115,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -5234,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -5353,7 +5386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -5472,7 +5505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -5591,7 +5624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -5710,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
@@ -5829,7 +5862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -5948,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -6067,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -6186,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
@@ -6305,7 +6338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -6424,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -6543,7 +6576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -6662,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -6781,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -6900,7 +6933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
@@ -7019,7 +7052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
@@ -7138,7 +7171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
@@ -7257,7 +7290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
@@ -7376,7 +7409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
@@ -7495,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
@@ -7614,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>5</v>
       </c>
@@ -7649,7 +7682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -7768,7 +7801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -7887,7 +7920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -8006,7 +8039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -8125,7 +8158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -8244,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -8363,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -8482,7 +8515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -8601,7 +8634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -8720,7 +8753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
@@ -8839,7 +8872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -8958,7 +8991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
@@ -9077,7 +9110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
@@ -9196,7 +9229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -9315,7 +9348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -9434,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -9553,7 +9586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -9672,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -9791,7 +9824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -9910,7 +9943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -10029,7 +10062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -10148,7 +10181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
@@ -10267,7 +10300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -10386,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -10505,7 +10538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -10624,7 +10657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
@@ -10743,7 +10776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -10862,7 +10895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>6</v>
       </c>
@@ -10981,7 +11014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -11100,7 +11133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
@@ -11219,7 +11252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>6</v>
       </c>
@@ -11338,7 +11371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>7</v>
       </c>
@@ -11457,7 +11490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>7</v>
       </c>
@@ -11576,7 +11609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>7</v>
       </c>
@@ -11695,7 +11728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>7</v>
       </c>
@@ -11814,7 +11847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>7</v>
       </c>
@@ -11933,7 +11966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>7</v>
       </c>
@@ -12052,7 +12085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>7</v>
       </c>
@@ -12171,7 +12204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>7</v>
       </c>
@@ -12290,7 +12323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>7</v>
       </c>
@@ -12409,7 +12442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>7</v>
       </c>
@@ -12528,7 +12561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>7</v>
       </c>
@@ -12647,7 +12680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>7</v>
       </c>
@@ -12766,7 +12799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>7</v>
       </c>
@@ -12885,7 +12918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>7</v>
       </c>
@@ -13004,7 +13037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>7</v>
       </c>
@@ -13123,7 +13156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>7</v>
       </c>
@@ -13242,7 +13275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>7</v>
       </c>
@@ -13361,7 +13394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>7</v>
       </c>
@@ -13480,7 +13513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>7</v>
       </c>
@@ -13599,7 +13632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>7</v>
       </c>
@@ -13718,7 +13751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>7</v>
       </c>
@@ -13837,7 +13870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>7</v>
       </c>
@@ -13956,7 +13989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>7</v>
       </c>
@@ -14075,7 +14108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>7</v>
       </c>
@@ -14194,7 +14227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>7</v>
       </c>
@@ -14313,7 +14346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>7</v>
       </c>
@@ -14432,7 +14465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>7</v>
       </c>
@@ -14551,7 +14584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>7</v>
       </c>
@@ -14670,7 +14703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>7</v>
       </c>
@@ -14789,7 +14822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>7</v>
       </c>
@@ -14908,7 +14941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>8</v>
       </c>
@@ -15027,7 +15060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>8</v>
       </c>
@@ -15146,7 +15179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>8</v>
       </c>
@@ -15265,7 +15298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>8</v>
       </c>
@@ -15384,7 +15417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>8</v>
       </c>
@@ -15503,7 +15536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>8</v>
       </c>
@@ -15622,7 +15655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>8</v>
       </c>
@@ -15741,7 +15774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>8</v>
       </c>
@@ -15860,7 +15893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>8</v>
       </c>
@@ -15979,7 +16012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>8</v>
       </c>
@@ -16098,7 +16131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>8</v>
       </c>
@@ -16217,7 +16250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>8</v>
       </c>
@@ -16336,7 +16369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>8</v>
       </c>
@@ -16455,7 +16488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
@@ -16574,7 +16607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>8</v>
       </c>
@@ -16693,7 +16726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>8</v>
       </c>
@@ -16812,7 +16845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>8</v>
       </c>
@@ -16931,7 +16964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>8</v>
       </c>
@@ -17050,7 +17083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>8</v>
       </c>
@@ -17169,7 +17202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>8</v>
       </c>
@@ -17288,7 +17321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>8</v>
       </c>
@@ -17407,7 +17440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>8</v>
       </c>
@@ -17526,7 +17559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>8</v>
       </c>
@@ -17645,7 +17678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>8</v>
       </c>
@@ -17764,7 +17797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>8</v>
       </c>
@@ -17883,7 +17916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>8</v>
       </c>
@@ -18002,7 +18035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>8</v>
       </c>
@@ -18121,7 +18154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>8</v>
       </c>
@@ -18240,7 +18273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>8</v>
       </c>
@@ -18359,7 +18392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>8</v>
       </c>
@@ -18478,7 +18511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>8</v>
       </c>
@@ -18597,7 +18630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>9</v>
       </c>
@@ -18716,7 +18749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>9</v>
       </c>
@@ -18835,7 +18868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>9</v>
       </c>
@@ -18954,7 +18987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>9</v>
       </c>
@@ -19073,7 +19106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>9</v>
       </c>
@@ -19192,7 +19225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>9</v>
       </c>
@@ -19311,7 +19344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>9</v>
       </c>
@@ -19430,7 +19463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>9</v>
       </c>
@@ -19549,7 +19582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>9</v>
       </c>
@@ -19668,7 +19701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>9</v>
       </c>
@@ -19787,7 +19820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>9</v>
       </c>
@@ -19906,7 +19939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>9</v>
       </c>
@@ -20025,7 +20058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>9</v>
       </c>
@@ -20144,7 +20177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>9</v>
       </c>
@@ -20263,7 +20296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>9</v>
       </c>
@@ -20382,7 +20415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>9</v>
       </c>
@@ -20501,7 +20534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>9</v>
       </c>
@@ -20620,7 +20653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>9</v>
       </c>
@@ -20739,7 +20772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>9</v>
       </c>
@@ -20858,7 +20891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>9</v>
       </c>
@@ -20977,7 +21010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>9</v>
       </c>
@@ -21096,7 +21129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>9</v>
       </c>
@@ -21215,7 +21248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>9</v>
       </c>
@@ -21334,7 +21367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>9</v>
       </c>
@@ -21453,7 +21486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>9</v>
       </c>
@@ -21572,7 +21605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>9</v>
       </c>
@@ -21691,7 +21724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>9</v>
       </c>
@@ -21810,7 +21843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>9</v>
       </c>
@@ -21929,7 +21962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>9</v>
       </c>
@@ -22048,7 +22081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>9</v>
       </c>
@@ -22167,7 +22200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>10</v>
       </c>
@@ -22286,7 +22319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>10</v>
       </c>
@@ -22405,7 +22438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>10</v>
       </c>
@@ -22524,7 +22557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>10</v>
       </c>
@@ -22643,7 +22676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>10</v>
       </c>
@@ -22762,7 +22795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>10</v>
       </c>
@@ -22881,7 +22914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>10</v>
       </c>
@@ -23000,7 +23033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>10</v>
       </c>
@@ -23119,7 +23152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>10</v>
       </c>
@@ -23238,7 +23271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>10</v>
       </c>
@@ -23357,7 +23390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>10</v>
       </c>
@@ -23476,7 +23509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>10</v>
       </c>
@@ -23595,7 +23628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>10</v>
       </c>
@@ -23714,7 +23747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>10</v>
       </c>
@@ -23833,7 +23866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>10</v>
       </c>
@@ -23952,7 +23985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>10</v>
       </c>
@@ -24071,7 +24104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>10</v>
       </c>
@@ -24190,7 +24223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>10</v>
       </c>
@@ -24309,7 +24342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>10</v>
       </c>
@@ -24428,7 +24461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>10</v>
       </c>
@@ -24547,7 +24580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>10</v>
       </c>
@@ -24666,7 +24699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>10</v>
       </c>
@@ -24785,7 +24818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>10</v>
       </c>
@@ -24904,7 +24937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>10</v>
       </c>
@@ -25023,7 +25056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>10</v>
       </c>
@@ -25142,7 +25175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>10</v>
       </c>
@@ -25261,7 +25294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>10</v>
       </c>
@@ -25380,7 +25413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>10</v>
       </c>
@@ -25499,7 +25532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>10</v>
       </c>
@@ -25618,7 +25651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>10</v>
       </c>
@@ -25737,7 +25770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>10</v>
       </c>
@@ -25856,7 +25889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>11</v>
       </c>
@@ -25975,7 +26008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>11</v>
       </c>
@@ -26094,7 +26127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>11</v>
       </c>
@@ -26213,7 +26246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>11</v>
       </c>
@@ -26332,7 +26365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>11</v>
       </c>
@@ -26451,7 +26484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>11</v>
       </c>
@@ -26570,7 +26603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>11</v>
       </c>
@@ -26689,7 +26722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>11</v>
       </c>
@@ -26808,7 +26841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>11</v>
       </c>
@@ -26927,7 +26960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>11</v>
       </c>
@@ -27046,7 +27079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>11</v>
       </c>
@@ -27165,7 +27198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>11</v>
       </c>
@@ -27284,7 +27317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>11</v>
       </c>
@@ -27403,7 +27436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>11</v>
       </c>
@@ -27522,7 +27555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>11</v>
       </c>
@@ -27641,7 +27674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>11</v>
       </c>
@@ -27760,7 +27793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>11</v>
       </c>
@@ -27879,7 +27912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>11</v>
       </c>
@@ -27998,7 +28031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>11</v>
       </c>
@@ -28117,7 +28150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>11</v>
       </c>
@@ -28236,7 +28269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>11</v>
       </c>
@@ -28355,7 +28388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>11</v>
       </c>
@@ -28474,7 +28507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>11</v>
       </c>
@@ -28593,7 +28626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>11</v>
       </c>
@@ -28712,7 +28745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>11</v>
       </c>
@@ -28831,7 +28864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>11</v>
       </c>
@@ -28950,7 +28983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>11</v>
       </c>
@@ -29069,7 +29102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>11</v>
       </c>
@@ -29188,7 +29221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>11</v>
       </c>
@@ -29307,7 +29340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>11</v>
       </c>
@@ -29426,7 +29459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>11</v>
       </c>
@@ -29545,7 +29578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>12</v>
       </c>
@@ -29664,7 +29697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>12</v>
       </c>
@@ -29783,7 +29816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>12</v>
       </c>
@@ -29902,7 +29935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>12</v>
       </c>
@@ -30021,7 +30054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>12</v>
       </c>
@@ -30140,7 +30173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>12</v>
       </c>
@@ -30259,7 +30292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>12</v>
       </c>
@@ -30378,7 +30411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>12</v>
       </c>
@@ -30497,7 +30530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>12</v>
       </c>
@@ -30616,7 +30649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>12</v>
       </c>
@@ -30735,7 +30768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>12</v>
       </c>
@@ -30854,7 +30887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>12</v>
       </c>
@@ -30973,7 +31006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>12</v>
       </c>
@@ -31092,7 +31125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>12</v>
       </c>
@@ -31211,7 +31244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>12</v>
       </c>
@@ -31330,7 +31363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>12</v>
       </c>
@@ -31449,7 +31482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>12</v>
       </c>
@@ -31568,7 +31601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>12</v>
       </c>
@@ -31687,7 +31720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>12</v>
       </c>
@@ -31806,7 +31839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>12</v>
       </c>
@@ -31925,7 +31958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>12</v>
       </c>
@@ -32044,7 +32077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>12</v>
       </c>
@@ -32163,7 +32196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>12</v>
       </c>
@@ -32282,7 +32315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>12</v>
       </c>
@@ -32401,7 +32434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>12</v>
       </c>
@@ -32520,7 +32553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>12</v>
       </c>
@@ -32639,7 +32672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>12</v>
       </c>
@@ -32758,7 +32791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>12</v>
       </c>
@@ -32877,7 +32910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>12</v>
       </c>
@@ -32996,7 +33029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>12</v>
       </c>
@@ -33115,7 +33148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>13</v>
       </c>
@@ -33234,7 +33267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>13</v>
       </c>
@@ -33353,7 +33386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>13</v>
       </c>
@@ -33472,7 +33505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>13</v>
       </c>
@@ -33591,7 +33624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>13</v>
       </c>
@@ -33710,7 +33743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>13</v>
       </c>
@@ -33829,7 +33862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>13</v>
       </c>
@@ -33948,7 +33981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>13</v>
       </c>
@@ -34067,7 +34100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>13</v>
       </c>
@@ -34186,7 +34219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>13</v>
       </c>
@@ -34305,7 +34338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>13</v>
       </c>
@@ -34424,7 +34457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>13</v>
       </c>
@@ -34543,7 +34576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>13</v>
       </c>
@@ -34662,7 +34695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>13</v>
       </c>
@@ -34781,7 +34814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>13</v>
       </c>
@@ -34900,7 +34933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>13</v>
       </c>
@@ -35019,7 +35052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>13</v>
       </c>
@@ -35138,7 +35171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>13</v>
       </c>
@@ -35257,7 +35290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>13</v>
       </c>
@@ -35376,7 +35409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>13</v>
       </c>
@@ -35495,7 +35528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>13</v>
       </c>
@@ -35614,7 +35647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>13</v>
       </c>
@@ -35733,7 +35766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>13</v>
       </c>
@@ -35852,7 +35885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>13</v>
       </c>
@@ -35971,7 +36004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>13</v>
       </c>
@@ -36090,7 +36123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>13</v>
       </c>
@@ -36209,7 +36242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>13</v>
       </c>
@@ -36328,7 +36361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>13</v>
       </c>
@@ -36447,7 +36480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>13</v>
       </c>
@@ -36566,7 +36599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>13</v>
       </c>
@@ -36685,7 +36718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="306" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>13</v>
       </c>
@@ -36804,7 +36837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>14</v>
       </c>
@@ -36923,7 +36956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>14</v>
       </c>
@@ -37042,7 +37075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>14</v>
       </c>
@@ -37161,7 +37194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>14</v>
       </c>
@@ -37280,7 +37313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>14</v>
       </c>
@@ -37399,7 +37432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>14</v>
       </c>
@@ -37518,7 +37551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>14</v>
       </c>
@@ -37637,7 +37670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>14</v>
       </c>
@@ -37756,7 +37789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>14</v>
       </c>
@@ -37875,7 +37908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>14</v>
       </c>
@@ -37994,7 +38027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>14</v>
       </c>
@@ -38113,7 +38146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>14</v>
       </c>
@@ -38232,7 +38265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>14</v>
       </c>
@@ -38351,7 +38384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>14</v>
       </c>
@@ -38470,7 +38503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>14</v>
       </c>
@@ -38589,7 +38622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>14</v>
       </c>
@@ -38708,7 +38741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>14</v>
       </c>
@@ -38827,7 +38860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>14</v>
       </c>
@@ -38946,7 +38979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>14</v>
       </c>
@@ -39065,7 +39098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>14</v>
       </c>
@@ -39184,7 +39217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>14</v>
       </c>
@@ -39303,7 +39336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>14</v>
       </c>
@@ -39422,7 +39455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>14</v>
       </c>
@@ -39541,7 +39574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>14</v>
       </c>
@@ -39660,7 +39693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>14</v>
       </c>
@@ -39779,7 +39812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>14</v>
       </c>
@@ -39898,7 +39931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>14</v>
       </c>
@@ -40017,7 +40050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>14</v>
       </c>
@@ -40136,7 +40169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>14</v>
       </c>
@@ -40255,7 +40288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="336" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>14</v>
       </c>
@@ -40374,7 +40407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>15</v>
       </c>
@@ -40493,7 +40526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>15</v>
       </c>
@@ -40612,7 +40645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>15</v>
       </c>
@@ -40731,7 +40764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>15</v>
       </c>
@@ -40850,7 +40883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>15</v>
       </c>
@@ -40969,7 +41002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>15</v>
       </c>
@@ -41088,7 +41121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>15</v>
       </c>
@@ -41207,7 +41240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>15</v>
       </c>
@@ -41326,7 +41359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>15</v>
       </c>
@@ -41445,7 +41478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>15</v>
       </c>
@@ -41564,7 +41597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>15</v>
       </c>
@@ -41683,7 +41716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>15</v>
       </c>
@@ -41802,7 +41835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>15</v>
       </c>
@@ -41921,7 +41954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>15</v>
       </c>
@@ -42040,7 +42073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>15</v>
       </c>
@@ -42159,7 +42192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>15</v>
       </c>
@@ -42278,7 +42311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>15</v>
       </c>
@@ -42397,7 +42430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>15</v>
       </c>
@@ -42516,7 +42549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>15</v>
       </c>
@@ -42635,7 +42668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>15</v>
       </c>
@@ -42754,7 +42787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>15</v>
       </c>
@@ -42873,7 +42906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>15</v>
       </c>
@@ -42992,7 +43025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>15</v>
       </c>
@@ -43111,7 +43144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>15</v>
       </c>
@@ -43230,7 +43263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>15</v>
       </c>
@@ -43349,7 +43382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>15</v>
       </c>
@@ -43468,7 +43501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>15</v>
       </c>
@@ -43587,7 +43620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>15</v>
       </c>
@@ -43706,7 +43739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>15</v>
       </c>
@@ -43825,7 +43858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>15</v>
       </c>
@@ -43944,7 +43977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>15</v>
       </c>
